--- a/templates/community/MAdLand/MAdLand_harvesting/MAdLand_harvesting_v1.0.0.xlsx
+++ b/templates/community/MAdLand/MAdLand_harvesting/MAdLand_harvesting_v1.0.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MAdLand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\swate-template-registry\templates\community\MAdLand\MAdLand_harvesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84067627-74DE-4D92-BFA0-AB396A9511B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D7D241-3E34-4FB3-B27B-F6B428077B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9C05D2FF-8CD7-4E64-AF20-54B006A3A980}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Source Name</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>Term Accession Number (NCIT:C25164)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/C_3500</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1027,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1120,13 +1126,17 @@
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
